--- a/pharmasug-2023/data/sdtm_specializations.xlsx
+++ b/pharmasug-2023/data/sdtm_specializations.xlsx
@@ -52282,7 +52282,7 @@
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
-    <oddHeader>SDTM Specializations (generated on 2023-04-08T16:04:03)</oddHeader>
+    <oddHeader>SDTM Specializations (generated on 2023-04-10T09:44:11)</oddHeader>
     <oddFooter/>
   </headerFooter>
 </worksheet>

--- a/pharmasug-2023/data/sdtm_specializations.xlsx
+++ b/pharmasug-2023/data/sdtm_specializations.xlsx
@@ -52282,7 +52282,7 @@
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
-    <oddHeader>SDTM Specializations (generated on 2023-04-10T09:44:11)</oddHeader>
+    <oddHeader>SDTM Specializations (generated on 2023-04-13T12:51:39)</oddHeader>
     <oddFooter/>
   </headerFooter>
 </worksheet>
